--- a/PlanilhaModeloOK.xlsx
+++ b/PlanilhaModeloOK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muril\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muril\OneDrive\Área de Trabalho\Projeto WEB\ProcessoSeletivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB04E80-A6E0-4D17-8271-50C3AAE513BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5238DC-749A-4CD7-8ED7-C4BB623BC4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,7 +717,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -786,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -818,7 +818,7 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -850,7 +850,7 @@
         <v>17</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -882,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -914,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -979,7 +979,7 @@
         <v>15</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>15</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1107,7 +1107,7 @@
         <v>15</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -1140,7 +1140,7 @@
         <v>15</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1236,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
         <v>15</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1300,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1332,7 +1332,7 @@
         <v>15</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1364,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1396,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1428,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1460,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1492,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1524,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1556,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1588,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1620,7 +1620,7 @@
         <v>15</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
         <v>15</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1684,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="J30">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1716,7 +1716,7 @@
         <v>15</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1771,6 +1771,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035DB470D04825E42BDB94FCB7A51A645" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c39ef9d5618708bb07cf0d26b5667674">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e681c0fc-47da-403c-bc21-c58f914227e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d2f59823afae15711af6a3c6bd694b3" ns3:_="">
     <xsd:import namespace="e681c0fc-47da-403c-bc21-c58f914227e3"/>
@@ -1908,15 +1917,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1924,6 +1924,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32FEAEA-FCAB-4ACB-B4CF-F15F4220B113}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E51E2D-CC7B-47AC-8BD3-C9423AEC8602}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1937,14 +1945,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32FEAEA-FCAB-4ACB-B4CF-F15F4220B113}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
